--- a/biokart_website_automation/excel_data/biokart_data.xlsx
+++ b/biokart_website_automation/excel_data/biokart_data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBA941-3147-445C-B7AD-DDD7CEAE35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SCENARIOS" sheetId="1" r:id="rId1"/>
+    <sheet name="TESTCASES" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,18 +17,370 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Author - gurupreeth Singh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
+  <si>
+    <t>SCENARIO_NO</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>bk_sc_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart home page("https://biokart.com/") , home page should be displayed   </t>
+  </si>
+  <si>
+    <t>bk_sc_02</t>
+  </si>
+  <si>
+    <t>bk_sc_03</t>
+  </si>
+  <si>
+    <t>bk_sc_04</t>
+  </si>
+  <si>
+    <t>bk_sc_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart about page("https://biokart.com/about/") , about page should be displayed   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart service page("https://biokart.com/services-2/") , sevice page should be displayed   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart contacte page("https://biokart.com/contact/"") , contact page should be displayed   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart payment policy page("https://biokart.com/payment-policy/") , payment policy page should be displayed   </t>
+  </si>
+  <si>
+    <t>https://biokart.com/payment-policy/</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>TEST_SCENARIO_NO</t>
+  </si>
+  <si>
+    <t>TEST_CASE_NO</t>
+  </si>
+  <si>
+    <t>REQUIREMENT_NO</t>
+  </si>
+  <si>
+    <t>RELEASE/BUILD_NAME</t>
+  </si>
+  <si>
+    <t>MODULE_NAME</t>
+  </si>
+  <si>
+    <t>PRE_CONDITION</t>
+  </si>
+  <si>
+    <t>CHROME BROWSER,URL OF HOMEPAGE,INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>TEST_DATA</t>
+  </si>
+  <si>
+    <t>POST_CONDITION</t>
+  </si>
+  <si>
+    <t>TEST_CASE_TYPE</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL TESTING</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>BRIEF_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BIOKART</t>
+  </si>
+  <si>
+    <t>bk_tc_01</t>
+  </si>
+  <si>
+    <t>bk_rq_01</t>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
+  </si>
+  <si>
+    <t>https://biokart.com/</t>
+  </si>
+  <si>
+    <t>HOMEPAGE Page Should Be Displayed</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>WHEN USER ENTERS THE URL OF HOME PAGE, HOMEPAGE SHOULD DISPLAYED WITH ALL IT CONTENTS</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>SL.NO</t>
+  </si>
+  <si>
+    <t>TEST_SCENARIO</t>
+  </si>
+  <si>
+    <t>TEST_STEPS</t>
+  </si>
+  <si>
+    <t>ACTION/DESCRIPTION</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>EXPECTED_RESULT</t>
+  </si>
+  <si>
+    <t>ACTUAL_RESULT</t>
+  </si>
+  <si>
+    <t>STATUS
+PASS/FAIL</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart home page("https://biokart.com/") , homepage shoul displayed
+  </t>
+  </si>
+  <si>
+    <t>Open the chrome browser and enter url of homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home page shoud be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">home page is be displayed </t>
+  </si>
+  <si>
+    <t>bk_tc_02</t>
+  </si>
+  <si>
+    <t>bk_rq_02</t>
+  </si>
+  <si>
+    <t>ABOUT PAGE</t>
+  </si>
+  <si>
+    <t>https://biokart.com/about/</t>
+  </si>
+  <si>
+    <t>ABOUT Page Should Be Displayed</t>
+  </si>
+  <si>
+    <t>WHEN USER ENTERS THE URL OF ABOUTPAGE, HOMEPAGE SHOULD DISPLAYED WITH ALL IT CONTENTS</t>
+  </si>
+  <si>
+    <t>Open the chrome browser and enter url of aboutpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about page shoud be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutpage is be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart about page("https://biokart.com/about/") , aboutpage shoul displayed
+  </t>
+  </si>
+  <si>
+    <t>bk_tc_03</t>
+  </si>
+  <si>
+    <t>bk_rq_03</t>
+  </si>
+  <si>
+    <t>SERVICE PAGE</t>
+  </si>
+  <si>
+    <t>CHROME BROWSER,URL OF SERVICEPAGE,INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>CHROME BROWSER,URL OF ABOUT PAGE,INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>https://biokart.com/services-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart service page("https://biokart.com/services-2/") , aboutpage shoul displayed
+  </t>
+  </si>
+  <si>
+    <t>Open the chrome browser and enter url of service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service page shoud be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">service page is be displayed </t>
+  </si>
+  <si>
+    <t>WHEN USER ENTERS THE URL OF SERVICEPAGE, SERVICE PAGE SHOULD DISPLAYED WITH ALL IT CONTENTS</t>
+  </si>
+  <si>
+    <t>bk_tc_04</t>
+  </si>
+  <si>
+    <t>bk_rq_04</t>
+  </si>
+  <si>
+    <t>CONTACT PAGE</t>
+  </si>
+  <si>
+    <t>CHROME BROWSER,URL OF CONTACT PAGE,INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>WHEN USER ENTERS THE URL OF CONTACT PAGE, CONTACT PAGE SHOULD DISPLAYED WITH ALL IT CONTENTS</t>
+  </si>
+  <si>
+    <t>CONTACT Page Should Be Displayed</t>
+  </si>
+  <si>
+    <t>SERVICE  Page Should Be Displayed</t>
+  </si>
+  <si>
+    <t>Open the chrome browser and enter url of contact page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact page shoud be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact page is be displayed </t>
+  </si>
+  <si>
+    <t>https://biokart.com/contact/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart contact page("https://biokart.com/contact/") , contact page shoul displayed
+  </t>
+  </si>
+  <si>
+    <t>bk_tc_05</t>
+  </si>
+  <si>
+    <t>bk_rq_05</t>
+  </si>
+  <si>
+    <t>PAYMENT POLICY PAGE</t>
+  </si>
+  <si>
+    <t>CHROME BROWSER,URL PAYMENT POLICY PAGE,INTERNET CONNECTION</t>
+  </si>
+  <si>
+    <t>PAYMENT POLICY Page Should Be Displayed</t>
+  </si>
+  <si>
+    <t>WHEN USER ENTERS THE URL OF PAYMENT POLICY PAGE, PAYMENT POLICY PAGE SHOULD DISPLAYED WITH ALL IT CONTENTS</t>
+  </si>
+  <si>
+    <t>Open the chrome browser and enter url of payment policy page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment policypage shoud be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment policy page is be displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when user enter the url of  biokart payment policy page("https://biokart.com/payment-policy/") , payment policy page shoul displayed
+  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,24 +404,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -106,7 +534,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -140,6 +568,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -174,9 +603,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -349,18 +779,1029 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="23"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>0</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="80.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="61" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="17">
+        <v>1</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="83" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="17">
+        <v>1</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+    </row>
+    <row r="105" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" s="12" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I107" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="12" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="17">
+        <v>1</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -368,25 +1809,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
